--- a/base/base.xlsx
+++ b/base/base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject1\warranty_form_AG\base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\git\autogik_free_monty\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2823CB6E-099F-4994-BFEF-94BE6FE54DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91E2D00-3658-470C-A34F-D30FE19AE7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model_Conditions" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="budgets" sheetId="3" r:id="rId4"/>
     <sheet name="count_of_FM" sheetId="7" r:id="rId5"/>
     <sheet name="sizes" sheetId="1" r:id="rId6"/>
-    <sheet name="TEMP" sheetId="5" r:id="rId7"/>
+    <sheet name="managers" sheetId="8" r:id="rId7"/>
+    <sheet name="TEMP" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
   <si>
     <t>Pirelli</t>
   </si>
@@ -260,12 +261,48 @@
   </si>
   <si>
     <t>count_of_FM</t>
+  </si>
+  <si>
+    <t>managers</t>
+  </si>
+  <si>
+    <t>Байрамов</t>
+  </si>
+  <si>
+    <t>Никифоров</t>
+  </si>
+  <si>
+    <t>Гулида</t>
+  </si>
+  <si>
+    <t>Шпонько</t>
+  </si>
+  <si>
+    <t>Диалло</t>
+  </si>
+  <si>
+    <t>Трейнис</t>
+  </si>
+  <si>
+    <t>Шараев</t>
+  </si>
+  <si>
+    <t>Коломейцев</t>
+  </si>
+  <si>
+    <t>Грибанов</t>
+  </si>
+  <si>
+    <t>Гавриленко</t>
+  </si>
+  <si>
+    <t>Волобуев</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -840,13 +877,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист2">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
@@ -999,7 +1036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист6">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1045,7 +1082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист4">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1263,7 +1300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Лист3">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1338,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1421,7 +1458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Лист1">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1751,7 +1788,88 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D347C094-995A-412F-B9A2-6804375AC3B1}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A12">
+    <sortCondition ref="A12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/base/base.xlsx
+++ b/base/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\git\autogik_free_monty\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD797C0-320E-49F9-A4CB-BEC2357EF6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE6DD5E-EBAC-473A-B3DB-C6BD55C4F067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model_conditions" sheetId="2" r:id="rId1"/>
@@ -883,8 +883,8 @@
   </sheetPr>
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,8 +1042,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/base/base.xlsx
+++ b/base/base.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="1" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7850" tabRatio="600" firstSheet="1" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_conditions" sheetId="1" state="visible" r:id="rId1"/>
@@ -448,9 +448,9 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="14.42578125" customWidth="1" min="2" max="8"/>
+    <col width="14.453125" customWidth="1" min="2" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -690,7 +690,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -754,9 +754,9 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="11.140625" customWidth="1" min="1" max="1"/>
+    <col width="11.1796875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1053,10 +1053,10 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1085,7 +1085,7 @@
         <v>200000</v>
       </c>
       <c r="C2" t="n">
-        <v>197000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="3">
@@ -1124,7 +1124,7 @@
         <v>150000</v>
       </c>
       <c r="C5" t="n">
-        <v>150000</v>
+        <v>148200</v>
       </c>
     </row>
     <row r="6">
@@ -1171,9 +1171,9 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="13.42578125" customWidth="1" min="2" max="2"/>
+    <col width="13.453125" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1272,7 +1272,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1659,7 +1659,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1762,7 +1762,7 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/base/base.xlsx
+++ b/base/base.xlsx
@@ -1085,7 +1085,7 @@
         <v>200000</v>
       </c>
       <c r="C2" t="n">
-        <v>197000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="3">
@@ -1124,7 +1124,7 @@
         <v>150000</v>
       </c>
       <c r="C5" t="n">
-        <v>150000</v>
+        <v>148200</v>
       </c>
     </row>
     <row r="6">

--- a/base/base.xlsx
+++ b/base/base.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="1" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_conditions" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="TEMP" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -1052,7 +1052,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1085,7 +1085,7 @@
         <v>200000</v>
       </c>
       <c r="C2" t="n">
-        <v>195000</v>
+        <v>186000</v>
       </c>
     </row>
     <row r="3">
@@ -1098,7 +1098,7 @@
         <v>300000</v>
       </c>
       <c r="C3" t="n">
-        <v>300000</v>
+        <v>298400</v>
       </c>
     </row>
     <row r="4">
@@ -1111,7 +1111,7 @@
         <v>150000</v>
       </c>
       <c r="C4" t="n">
-        <v>150000</v>
+        <v>148700</v>
       </c>
     </row>
     <row r="5">
@@ -1266,10 +1266,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1290,6 +1290,11 @@
           <t>diameter</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>season</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1303,6 +1308,11 @@
           <t>R13</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Лето</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1314,6 +1324,11 @@
       <c r="C3" s="1" t="inlineStr">
         <is>
           <t>R14</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Зима</t>
         </is>
       </c>
     </row>

--- a/base/base.xlsx
+++ b/base/base.xlsx
@@ -1085,7 +1085,7 @@
         <v>200000</v>
       </c>
       <c r="C2" t="n">
-        <v>186000</v>
+        <v>154500</v>
       </c>
     </row>
     <row r="3">
@@ -1098,7 +1098,7 @@
         <v>300000</v>
       </c>
       <c r="C3" t="n">
-        <v>298400</v>
+        <v>292600</v>
       </c>
     </row>
     <row r="4">
@@ -1111,7 +1111,7 @@
         <v>150000</v>
       </c>
       <c r="C4" t="n">
-        <v>148700</v>
+        <v>145900</v>
       </c>
     </row>
     <row r="5">
@@ -1124,7 +1124,7 @@
         <v>150000</v>
       </c>
       <c r="C5" t="n">
-        <v>148200</v>
+        <v>137000</v>
       </c>
     </row>
     <row r="6">
@@ -1137,7 +1137,7 @@
         <v>300000</v>
       </c>
       <c r="C6" t="n">
-        <v>300000</v>
+        <v>294000</v>
       </c>
     </row>
     <row r="7">
@@ -1150,7 +1150,7 @@
         <v>100000</v>
       </c>
       <c r="C7" t="n">
-        <v>100000</v>
+        <v>98000</v>
       </c>
     </row>
   </sheetData>
